--- a/Project_SouceDemo.xlsx
+++ b/Project_SouceDemo.xlsx
@@ -12,7 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22740" windowHeight="8868"/>
   </bookViews>
   <sheets>
-    <sheet name="HLR" sheetId="1" r:id="rId1"/>
+    <sheet name="HLR_Problem_user" sheetId="1" r:id="rId1"/>
+    <sheet name="HLR_Performance_glitch_user" sheetId="2" r:id="rId2"/>
+    <sheet name="HLR_Error_user" sheetId="3" r:id="rId3"/>
+    <sheet name="HLR_Visual_user" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="60">
   <si>
     <t>Functionality Id</t>
   </si>
@@ -241,6 +244,396 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 21/12/2023</t>
+    </r>
+  </si>
+  <si>
+    <t>By clicking this button, it will show the description of product.</t>
+  </si>
+  <si>
+    <t>By clicking this button, it will redirect to the cart page.</t>
+  </si>
+  <si>
+    <t>By clicking this button, the product is added to the cart.</t>
+  </si>
+  <si>
+    <t>By clicking this button, the product is remove to the cart.</t>
+  </si>
+  <si>
+    <t>Check the "Checkout" button</t>
+  </si>
+  <si>
+    <t>By clicking this button, it will open the information filling step for ordering.</t>
+  </si>
+  <si>
+    <t>Check the "Continue" button</t>
+  </si>
+  <si>
+    <t>Check the "Finish" button</t>
+  </si>
+  <si>
+    <t>By clicking this button, it will show the description of product like Quantity, payment,shipping info,total price.</t>
+  </si>
+  <si>
+    <t>By clicking this button, it will complete the order.</t>
+  </si>
+  <si>
+    <t>Check the "Back Home" button</t>
+  </si>
+  <si>
+    <t>By clicking this button, it will go back to home page.</t>
+  </si>
+  <si>
+    <t>Check the "Cancel" button</t>
+  </si>
+  <si>
+    <t>By clicking this button, it will back to cart page directly.</t>
+  </si>
+  <si>
+    <t>By clicking this button, it will directly go to home page.</t>
+  </si>
+  <si>
+    <t>By clicking this button, the product is not remove to the cart.</t>
+  </si>
+  <si>
+    <t>By clicking this button, it will not work and not touchable.</t>
+  </si>
+  <si>
+    <t>By clicking here, it will not work properly.</t>
+  </si>
+  <si>
+    <t>By clicking this button, it will redirect to the cart page , but the button is not seen by clickable actions and it is not set in its proper place.</t>
+  </si>
+  <si>
+    <t>By clicking this button, it will touchable but it is not set in its proper place.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Project Name :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SouceDemo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Username :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> visual_user   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Password :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> secret_sauce
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Prepared By : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nisha Barvaliya
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Date :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 25/12/2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Project Name :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SouceDemo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Username :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> error_user   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Password :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> secret_sauce
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Prepared By : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nisha Barvaliya
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Date :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 25/12/2023</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Project Name :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SouceDemo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Username :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> performance_glitch_user  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Password :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> secret_sauce
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Prepared By : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Nisha Barvaliya
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Date :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 25/12/2023</t>
     </r>
   </si>
 </sst>
@@ -350,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -389,11 +782,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,7 +1127,7 @@
   <dimension ref="A2:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -736,21 +1138,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
     </row>
     <row r="4" spans="1:3" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1056,4 +1458,1000 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C34"/>
+  <sheetViews>
+    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="51.21875" customWidth="1"/>
+    <col min="3" max="3" width="55.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+    </row>
+    <row r="5" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>101</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>102</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>103</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>104</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>105</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>106</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>107</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
+        <v>108</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>109</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
+        <v>110</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>111</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="19">
+        <v>112</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>113</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="19">
+        <v>201</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
+        <v>202</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="19">
+        <v>203</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="19">
+        <v>204</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>301</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="49.44140625" customWidth="1"/>
+    <col min="3" max="3" width="57.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+    </row>
+    <row r="4" spans="1:3" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>101</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>102</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>103</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>104</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>105</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>106</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>107</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
+        <v>108</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>109</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18">
+        <v>110</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="19">
+        <v>201</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18">
+        <v>202</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18">
+        <v>203</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="18">
+        <v>204</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>301</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="53.77734375" customWidth="1"/>
+    <col min="3" max="3" width="62" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+    </row>
+    <row r="4" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>101</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>102</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>103</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>104</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>105</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>106</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>107</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
+        <v>108</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>109</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
+        <v>110</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>111</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="19">
+        <v>112</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>113</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="19">
+        <v>201</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
+        <v>202</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="19">
+        <v>203</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="19">
+        <v>204</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>301</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>